--- a/example/excel/easypoi/src/main/resources/template.xlsx
+++ b/example/excel/easypoi/src/main/resources/template.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21">
   <si>
     <t>ID</t>
   </si>
@@ -25,55 +25,59 @@
     <t>配送公司编码</t>
   </si>
   <si>
+    <t>订单号
+取货码</t>
+  </si>
+  <si>
+    <t>渠道来源编码</t>
+  </si>
+  <si>
+    <t>渠道来源名称</t>
+  </si>
+  <si>
+    <t>商家编码</t>
+  </si>
+  <si>
+    <t>商家名称</t>
+  </si>
+  <si>
+    <t>商家手机号</t>
+  </si>
+  <si>
+    <t>商品金额</t>
+  </si>
+  <si>
+    <t>用户名</t>
+  </si>
+  <si>
+    <t>配送门店编码</t>
+  </si>
+  <si>
+    <t>配送门店名称</t>
+  </si>
+  <si>
+    <t>是否支付</t>
+  </si>
+  <si>
+    <t>配送公司名称</t>
+  </si>
+  <si>
+    <t>订单状态</t>
+  </si>
+  <si>
+    <t>订单收货地址</t>
+  </si>
+  <si>
+    <t>订单创建时间</t>
+  </si>
+  <si>
+    <t>订单修改时间</t>
+  </si>
+  <si>
     <t>订单号</t>
   </si>
   <si>
     <t>取货码</t>
-  </si>
-  <si>
-    <t>渠道来源编码</t>
-  </si>
-  <si>
-    <t>渠道来源名称</t>
-  </si>
-  <si>
-    <t>商家编码</t>
-  </si>
-  <si>
-    <t>商家名称</t>
-  </si>
-  <si>
-    <t>商家手机号</t>
-  </si>
-  <si>
-    <t>商品金额</t>
-  </si>
-  <si>
-    <t>用户名</t>
-  </si>
-  <si>
-    <t>配送门店编码</t>
-  </si>
-  <si>
-    <t>配送门店名称</t>
-  </si>
-  <si>
-    <t>是否支付</t>
-  </si>
-  <si>
-    <t>配送公司名称</t>
-  </si>
-  <si>
-    <t>订单状态</t>
-  </si>
-  <si>
-    <t>订单收货地址</t>
-  </si>
-  <si>
-    <t>订单创建时间</t>
-  </si>
-  <si>
-    <t>订单修改时间</t>
   </si>
 </sst>
 </file>
@@ -81,10 +85,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -110,21 +114,6 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
@@ -135,6 +124,13 @@
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -155,6 +151,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -165,22 +169,6 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -204,21 +192,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -232,12 +205,43 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -248,25 +252,121 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -278,13 +378,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -296,139 +426,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -451,15 +455,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -475,17 +470,20 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -507,20 +505,26 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
       <bottom style="double">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -544,157 +548,160 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="29" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1018,7 +1025,7 @@
   <dimension ref="A1:T14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O14" sqref="O14"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="18.5892857142857" defaultRowHeight="17.6"/>
@@ -1036,56 +1043,53 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>18</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:20">
@@ -1099,55 +1103,55 @@
         <v>2</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>3</v>
+        <v>19</v>
       </c>
       <c r="E2" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="G2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="H2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="I2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="J2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="K2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K2" s="1" t="s">
+      <c r="L2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L2" s="1" t="s">
+      <c r="M2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="M2" s="1" t="s">
+      <c r="N2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="N2" s="1" t="s">
+      <c r="O2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="O2" s="1" t="s">
+      <c r="P2" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="P2" s="1" t="s">
+      <c r="Q2" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="Q2" s="1" t="s">
+      <c r="R2" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="R2" s="1" t="s">
+      <c r="S2" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="S2" s="1" t="s">
+      <c r="T2" s="1" t="s">
         <v>18</v>
-      </c>
-      <c r="T2" s="1" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -1895,6 +1899,9 @@
       </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="D1:E1"/>
+  </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>
 </worksheet>
